--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_33.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_33.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.993554413346035</v>
+        <v>0.8383215421677419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8012634061988769</v>
+        <v>0.602918527717123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.752961359184164</v>
+        <v>0.7122885064842268</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9951315679546378</v>
+        <v>0.6540312003278403</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02682992652387796</v>
+        <v>0.3832090900172069</v>
       </c>
       <c r="G2" t="n">
-        <v>1.328952517845981</v>
+        <v>2.655285633547657</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8836428940748385</v>
+        <v>1.029127329835012</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02507038747324408</v>
+        <v>1.000679015740083</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3398689470762215</v>
+        <v>1.326454730924623</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1637984326050709</v>
+        <v>0.619038843706279</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41251754585376</v>
+        <v>0.7798420999730954</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1663780941802396</v>
+        <v>0.6287880866828356</v>
       </c>
       <c r="N2" t="n">
-        <v>137.2364747062582</v>
+        <v>35.91834902365503</v>
       </c>
       <c r="O2" t="n">
-        <v>278.5716472494747</v>
+        <v>72.88293261188085</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.993665903432242</v>
+        <v>0.8383996213346716</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8009057939791729</v>
+        <v>0.601922606826945</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7521831287016216</v>
+        <v>0.709487661975</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9943536242008015</v>
+        <v>0.6488724629094383</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02636584606360876</v>
+        <v>0.383024027350791</v>
       </c>
       <c r="G3" t="n">
-        <v>1.331343872405794</v>
+        <v>2.661945361126071</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8864265793864963</v>
+        <v>1.03914578824222</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02907647221661463</v>
+        <v>1.015600130844103</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3186520473914446</v>
+        <v>1.272359967011755</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1623756326041834</v>
+        <v>0.6188893498443733</v>
       </c>
       <c r="L3" t="n">
-        <v>1.40538218033651</v>
+        <v>0.7799484205408295</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1649328865016164</v>
+        <v>0.6286362384420437</v>
       </c>
       <c r="N3" t="n">
-        <v>137.271371632213</v>
+        <v>35.91931511434372</v>
       </c>
       <c r="O3" t="n">
-        <v>278.6065441754295</v>
+        <v>72.88389870256954</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9936956418967398</v>
+        <v>0.8379401926112762</v>
       </c>
       <c r="C4" t="n">
-        <v>0.800790534858588</v>
+        <v>0.6006903599563255</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7519752411866624</v>
+        <v>0.7062768983271932</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9940798199887791</v>
+        <v>0.6420319471032996</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02624205891121451</v>
+        <v>0.3841129619273617</v>
       </c>
       <c r="G4" t="n">
-        <v>1.332114610675865</v>
+        <v>2.670185401623879</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8871701809734946</v>
+        <v>1.050630503639652</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03048644931463058</v>
+        <v>1.035385616213095</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3115904585670263</v>
+        <v>1.225827760285409</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1619940088744473</v>
+        <v>0.6197684744542608</v>
       </c>
       <c r="L4" t="n">
-        <v>1.403478918608656</v>
+        <v>0.7793228154706739</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1645452525796207</v>
+        <v>0.6295292083857349</v>
       </c>
       <c r="N4" t="n">
-        <v>137.2807837067604</v>
+        <v>35.91363719593716</v>
       </c>
       <c r="O4" t="n">
-        <v>278.6159562499769</v>
+        <v>72.87822078416298</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9937090004433622</v>
+        <v>0.8376941167350875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8006638241626434</v>
+        <v>0.5997644561116202</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7516862191322644</v>
+        <v>0.7037367990638125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9937482328680691</v>
+        <v>0.6365559183180831</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02618645360426782</v>
+        <v>0.3846962091567933</v>
       </c>
       <c r="G5" t="n">
-        <v>1.332961925683096</v>
+        <v>2.676376924896818</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8882039961036149</v>
+        <v>1.059716291421347</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03219398420879772</v>
+        <v>1.051224463820589</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3045321149865839</v>
+        <v>1.178328157162095</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1618222901959672</v>
+        <v>0.6202388323515332</v>
       </c>
       <c r="L5" t="n">
-        <v>1.40262397162482</v>
+        <v>0.7789877334265022</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1643708295036102</v>
+        <v>0.630006973949704</v>
       </c>
       <c r="N5" t="n">
-        <v>137.2850260798608</v>
+        <v>35.91060264659378</v>
       </c>
       <c r="O5" t="n">
-        <v>278.6201986230772</v>
+        <v>72.87518623481961</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9937251938185436</v>
+        <v>0.8373388495286711</v>
       </c>
       <c r="C6" t="n">
-        <v>0.800548154563453</v>
+        <v>0.5988613235296069</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75147556984955</v>
+        <v>0.7013121540196889</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9934355477349428</v>
+        <v>0.6310178428567679</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02611904824776286</v>
+        <v>0.3855382608729533</v>
       </c>
       <c r="G6" t="n">
-        <v>1.333735408825492</v>
+        <v>2.682416176631285</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8889574763737369</v>
+        <v>1.06838910615518</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03380418177786266</v>
+        <v>1.067242775029504</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2976700150719159</v>
+        <v>1.139366359999808</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1616138863085807</v>
+        <v>0.6209172737756241</v>
       </c>
       <c r="L6" t="n">
-        <v>1.401587595613208</v>
+        <v>0.7785039653156373</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1641591434633249</v>
+        <v>0.6306961001480317</v>
       </c>
       <c r="N6" t="n">
-        <v>137.2901808258383</v>
+        <v>35.90622968181803</v>
       </c>
       <c r="O6" t="n">
-        <v>278.6253533690547</v>
+        <v>72.87081327004385</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9937019934573854</v>
+        <v>0.8368966573766234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8002894808094241</v>
+        <v>0.5979771471863953</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7508287344431236</v>
+        <v>0.6990004894323799</v>
       </c>
       <c r="E7" t="n">
-        <v>0.992606533496223</v>
+        <v>0.6254628995710597</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02621562037046025</v>
+        <v>0.3865863414550598</v>
       </c>
       <c r="G7" t="n">
-        <v>1.335465161409766</v>
+        <v>2.688328667909599</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8912711691168522</v>
+        <v>1.07665779634597</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03807325814411134</v>
+        <v>1.08330987467809</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2838304720968618</v>
+        <v>1.110673168838292</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1619123848581703</v>
+        <v>0.6217606786015499</v>
       </c>
       <c r="L7" t="n">
-        <v>1.403072418727334</v>
+        <v>0.7779018313213596</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1644623430666814</v>
+        <v>0.6315527877568703</v>
       </c>
       <c r="N7" t="n">
-        <v>137.2827996970486</v>
+        <v>35.90080008549302</v>
       </c>
       <c r="O7" t="n">
-        <v>278.617972240265</v>
+        <v>72.86538367371884</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9936950527110618</v>
+        <v>0.8360416400896218</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8001691481796571</v>
+        <v>0.5968559979379717</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7505945903612761</v>
+        <v>0.6963453778874981</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9922219303551632</v>
+        <v>0.6184799863814816</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02624451141232806</v>
+        <v>0.3886128971316413</v>
       </c>
       <c r="G8" t="n">
-        <v>1.336269826259099</v>
+        <v>2.695825798096225</v>
       </c>
       <c r="H8" t="n">
-        <v>0.892108688921167</v>
+        <v>1.0861549763898</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04005380335455125</v>
+        <v>1.103507229769552</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2769971836574118</v>
+        <v>1.08512549144236</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1620015784254217</v>
+        <v>0.6233882394877539</v>
       </c>
       <c r="L8" t="n">
-        <v>1.403516626492042</v>
+        <v>0.7767375524624637</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1645529413434561</v>
+        <v>0.6332059811000681</v>
       </c>
       <c r="N8" t="n">
-        <v>137.2805968017217</v>
+        <v>35.89034310776454</v>
       </c>
       <c r="O8" t="n">
-        <v>278.6157693449381</v>
+        <v>72.85492669599036</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9936817442821404</v>
+        <v>0.8354923218159367</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8000422373856044</v>
+        <v>0.5960188244457401</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7503493397325272</v>
+        <v>0.6942770020566942</v>
       </c>
       <c r="E9" t="n">
-        <v>0.991818738985193</v>
+        <v>0.6130597829288464</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02629990810300653</v>
+        <v>0.3899148872582857</v>
       </c>
       <c r="G9" t="n">
-        <v>1.3371184793233</v>
+        <v>2.701423981093606</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8929859361997532</v>
+        <v>1.093553436805264</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04213007016424167</v>
+        <v>1.119184608369107</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2702723037513757</v>
+        <v>1.057965982756813</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1621724640714524</v>
+        <v>0.624431651390515</v>
       </c>
       <c r="L9" t="n">
-        <v>1.404368365943014</v>
+        <v>0.7759895446004245</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1647265182675889</v>
+        <v>0.6342658256972683</v>
       </c>
       <c r="N9" t="n">
-        <v>137.2763796679736</v>
+        <v>35.88365360295009</v>
       </c>
       <c r="O9" t="n">
-        <v>278.61155221119</v>
+        <v>72.84823719117591</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9936938583526896</v>
+        <v>0.8345495732853626</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7999463235802307</v>
+        <v>0.5949335263607841</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7503421679142742</v>
+        <v>0.691876980517844</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9915253735115902</v>
+        <v>0.606279340811839</v>
       </c>
       <c r="F10" t="n">
-        <v>0.026249482960938</v>
+        <v>0.3921493828822555</v>
       </c>
       <c r="G10" t="n">
-        <v>1.337759855381476</v>
+        <v>2.708681374385046</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8930115893777983</v>
+        <v>1.102138174688486</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04364077957252074</v>
+        <v>1.138796336797679</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2628996242090929</v>
+        <v>1.034731799816661</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1620169218351528</v>
+        <v>0.6262183188651187</v>
       </c>
       <c r="L10" t="n">
-        <v>1.403593065427863</v>
+        <v>0.7747058019204938</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1645685263965527</v>
+        <v>0.6360806313985848</v>
       </c>
       <c r="N10" t="n">
-        <v>137.2802179737293</v>
+        <v>35.87222486600498</v>
       </c>
       <c r="O10" t="n">
-        <v>278.6153905169457</v>
+        <v>72.83680845423079</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.993661304764398</v>
+        <v>0.8339567675103261</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7998212351432336</v>
+        <v>0.5941572256790213</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7500717076248337</v>
+        <v>0.6900384027813933</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9910585467446708</v>
+        <v>0.6011787747205983</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0263849881412799</v>
+        <v>0.3935544467643242</v>
       </c>
       <c r="G11" t="n">
-        <v>1.338596322335655</v>
+        <v>2.71387250061853</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8939790101509384</v>
+        <v>1.108714660644908</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04604474204349739</v>
+        <v>1.15354919734677</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2581395870781314</v>
+        <v>1.009298946543075</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1624345657219543</v>
+        <v>0.6273391800009976</v>
       </c>
       <c r="L11" t="n">
-        <v>1.405676495078531</v>
+        <v>0.7738985770353377</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1649927477570807</v>
+        <v>0.6372191449769038</v>
       </c>
       <c r="N11" t="n">
-        <v>137.2699201231478</v>
+        <v>35.86507171069714</v>
       </c>
       <c r="O11" t="n">
-        <v>278.6050926663642</v>
+        <v>72.82965529892296</v>
       </c>
     </row>
   </sheetData>
